--- a/data/post_commercial_filter/filtered_suggested_activities.xlsx
+++ b/data/post_commercial_filter/filtered_suggested_activities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>concatenated</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sum_similarity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -472,6 +477,9 @@
           <t>Technicien de Maintenance du matériel Prépresse CTP-Le service Prépresse est équipé des machines CTP (Computer To Plate) et ça nécessite un technicien pour l'installation, la mise en marche, la formation et la maintenance.</t>
         </is>
       </c>
+      <c r="E2" t="n">
+        <v>359.7183227539062</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -494,6 +502,9 @@
           <t>الرسم بالزيت والرمل-رسم أشخاص وطبيعة و مناظر صحراوية  بالزيت والرمل</t>
         </is>
       </c>
+      <c r="E3" t="n">
+        <v>274.4566040039062</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +527,9 @@
           <t>تربية و تعليم ركوب الخيل-ننظم خرجات ركوب الخيل اساسها تعليم اساسيات الركوب مع الترفيه عن النفس حيث تعتبر نشاط يقوي الشخصية و يحفز و يعطي طاقة ايجابية نحن كجزء من مزرعة خيل لقينا اقبال كثير حيث اصبحنا نمثل الوجخة الاولى في ولاية تيبازة و باستطاعة اي شخص المشاركة حتى و للمرة لولى</t>
         </is>
       </c>
+      <c r="E4" t="n">
+        <v>201.6105194091797</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -538,51 +552,33 @@
           <t>محطة غسيل السياراة-لم اعثر عنها  اريد الاندماج معكم</t>
         </is>
       </c>
+      <c r="E5" t="n">
+        <v>294.7171936035156</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Services numériques et activités connexes</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trading / التداول</t>
+          <t>سياقة درجة نارية</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Le Trading c’est analyser les marchés ( la bourse ) c’est un domaine dans les 4  ou 5 dernières années très populaire et la plupart des jeunes ils sont concentrés en ce domaine, Je pense que c’est une bonne idée l’autoriser dans notre pays et Ils peuvent payer des impôts et travailler légalement _x000D_
-Merci pour votre attention.</t>
+          <t>Easy &amp; Speed</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Trading / التداول-Le Trading c’est analyser les marchés ( la bourse ) c’est un domaine dans les 4  ou 5 dernières années très populaire et la plupart des jeunes ils sont concentrés en ce domaine, Je pense que c’est une bonne idée l’autoriser dans notre pays et Ils peuvent payer des impôts et travailler légalement _x000D_
-Merci pour votre attention.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>سياقة درجة نارية</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Easy &amp; Speed</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>سياقة درجة نارية-Easy &amp; Speed</t>
         </is>
+      </c>
+      <c r="E6" t="n">
+        <v>364.4752502441406</v>
       </c>
     </row>
   </sheetData>
